--- a/biology/Microbiologie/Milieu_VRBL/Milieu_VRBL.xlsx
+++ b/biology/Microbiologie/Milieu_VRBL/Milieu_VRBL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le milieu VRBL (milieu lactosée biliée au cristal violet et au rouge neutre) est un milieu de culture gélosé pour les coliformes totaux et thermotolérants.
 </t>
@@ -511,7 +523,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>peptone 7 g
 extrait de levure 3 g
@@ -549,7 +563,9 @@
           <t>Caractéristiques chimiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le milieu VRBL possède un pH de 7,4 (à 25 °C avec une marge d'erreur de ±0,2 pour la valeur pH métrique. En fonction des normes du fournisseur; Biokard ou Oxoïd par exemple.)
 Le milieu VRBL est du type sélectif c’est-à-dire qu'il sélectionne des micro-organismes pouvant ainsi bénéficier des facteurs de croissance.
